--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2149,9 +2150,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>频繁项集的平均相似度</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2195,7 +2201,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2-gram</c:v>
+            <c:v>Level-0</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2207,81 +2213,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>Level-0</c:v>
+                <c:v>2-gram</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>Level-1</c:v>
+                <c:v>3-gram</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>Level-2</c:v>
+                <c:v>4-gram</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$1:$C$1</c:f>
+              <c:f>Sheet3!$A$1:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2289,10 +2237,10 @@
                   <c:v>0.47220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4889</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67779999999999996</c:v>
+                  <c:v>0.25559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2307,7 +2255,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>3-gram</c:v>
+            <c:v>Level-1</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2319,92 +2267,34 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>Level-0</c:v>
+                <c:v>2-gram</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>Level-1</c:v>
+                <c:v>3-gram</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>Level-2</c:v>
+                <c:v>4-gram</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$3:$C$3</c:f>
+              <c:f>Sheet3!$B$1:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>0.4889</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.36670000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32500000000000001</c:v>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2309,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4-gram</c:v>
+            <c:v>Level-2</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2431,91 +2321,33 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>Level-0</c:v>
+                <c:v>2-gram</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>Level-1</c:v>
+                <c:v>3-gram</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>Level-2</c:v>
+                <c:v>4-gram</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$5:$C$5</c:f>
+              <c:f>Sheet3!$C$1:$C$3</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.25559999999999999</c:v>
+                <c:pt idx="0">
+                  <c:v>0.67779999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.23330000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2523,14 +2355,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1062-4651-929B-5B2050E065A7}"/>
+              <c16:uniqueId val="{00000000-9E0D-4F39-AA3A-34F70836065C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2758,6 +2590,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2767,7 +2638,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2797,6 +2668,430 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>本文方法对比传统方法</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>传统方法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>准确率</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>精确率</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>召回率</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAB2-4315-8751-F0F13B384CC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>本文方法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>准确率</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>精确率</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>召回率</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAB2-4315-8751-F0F13B384CC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="494424496"/>
+        <c:axId val="494418592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="494424496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494418592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494418592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494424496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7052,6 +7347,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8909,6 +9244,509 @@
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13851,6 +14689,47 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D724C13-BEB1-4771-A0F2-A4EB7F58A6D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
@@ -13862,10 +14741,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D724C13-BEB1-4771-A0F2-A4EB7F58A6D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB2D9DD-8667-4C12-B5C7-5D24D59CBE5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14772,7 +15651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R33" sqref="R33:S33"/>
     </sheetView>
   </sheetViews>
@@ -15537,9 +16416,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15554,31 +16435,31 @@
         <v>0.67779999999999996</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.36670000000000003</v>
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.3</v>
       </c>
       <c r="C3" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.23330000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.25559999999999999</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.23330000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <f>+N49</f>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>+N47</f>
         <v>0</v>
       </c>
     </row>
@@ -15588,4 +16469,45 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.9859</v>
+      </c>
+      <c r="B1">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.9294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="B3">
+        <v>0.9698</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2198,62 +2198,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Level-0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>2-gram</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3-gram</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4-gram</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$A$1:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.47220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25559999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1062-4651-929B-5B2050E065A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>Level-1</c:v>
           </c:tx>
@@ -2307,7 +2253,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Level-2</c:v>
           </c:tx>
@@ -2360,7 +2306,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -16418,7 +16363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -16475,7 +16420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
